--- a/project/686_徐州时空信息云项目/686-huaweicloud-device_info-201612271834.xlsx
+++ b/project/686_徐州时空信息云项目/686-huaweicloud-device_info-201612271834.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="158">
   <si>
     <t>空闲</t>
   </si>
@@ -586,6 +586,10 @@
   </si>
   <si>
     <t>172.31.129.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,13 +813,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -824,10 +828,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1112,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1136,54 +1140,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:20">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="21" t="s">
         <v>142</v>
       </c>
       <c r="H3" s="22"/>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19" t="s">
+      <c r="J3" s="20"/>
+      <c r="K3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18" t="s">
+      <c r="N3" s="20"/>
+      <c r="O3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18" t="s">
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18" t="s">
+      <c r="R3" s="20"/>
+      <c r="S3" s="20" t="s">
         <v>140</v>
       </c>
       <c r="T3" s="12"/>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1202,8 +1206,8 @@
       <c r="J4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="18"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="5" t="s">
         <v>94</v>
       </c>
@@ -1222,7 +1226,7 @@
       <c r="R4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="18"/>
+      <c r="S4" s="20"/>
     </row>
     <row r="5" spans="2:20">
       <c r="B5" s="2">
@@ -1501,14 +1505,14 @@
       <c r="E11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="23">
-        <v>8080</v>
-      </c>
-      <c r="H11" s="23">
-        <v>80</v>
+      <c r="G11" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>26</v>
@@ -1549,14 +1553,14 @@
       <c r="E12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="G12" s="23">
-        <v>8080</v>
-      </c>
-      <c r="H12" s="23">
-        <v>80</v>
+      <c r="G12" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>26</v>
@@ -1597,14 +1601,14 @@
       <c r="E13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="23">
-        <v>8080</v>
-      </c>
-      <c r="H13" s="23">
-        <v>80</v>
+      <c r="G13" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>26</v>
@@ -1645,14 +1649,14 @@
       <c r="E14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="23">
-        <v>8080</v>
-      </c>
-      <c r="H14" s="23">
-        <v>80</v>
+      <c r="G14" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>26</v>
@@ -1693,14 +1697,14 @@
       <c r="E15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="23">
-        <v>8080</v>
-      </c>
-      <c r="H15" s="23">
-        <v>80</v>
+      <c r="G15" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>26</v>
@@ -1825,14 +1829,14 @@
       <c r="E18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="23">
-        <v>8080</v>
-      </c>
-      <c r="H18" s="23">
-        <v>80</v>
+      <c r="G18" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>22</v>
@@ -2069,14 +2073,14 @@
       <c r="E25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="G25" s="23">
-        <v>80</v>
-      </c>
-      <c r="H25" s="23">
-        <v>80</v>
+      <c r="G25" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>28</v>
@@ -2122,14 +2126,14 @@
       <c r="E26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="23">
-        <v>3389</v>
-      </c>
-      <c r="H26" s="23">
-        <v>4513</v>
+      <c r="G26" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>22</v>
@@ -2170,14 +2174,14 @@
       <c r="E27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="23">
-        <v>3389</v>
-      </c>
-      <c r="H27" s="23">
-        <v>4513</v>
+      <c r="G27" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>22</v>
@@ -2291,18 +2295,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
